--- a/Results/Calculation/lda-partial-ner-elmo-money.xlsx
+++ b/Results/Calculation/lda-partial-ner-elmo-money.xlsx
@@ -435,25 +435,25 @@
         <v>124</v>
       </c>
       <c r="C2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>27</v>
       </c>
       <c r="F2">
-        <v>0.57</v>
+        <v>0.5794392523364486</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>0.8211920529801324</v>
       </c>
       <c r="H2">
-        <v>0.67</v>
+        <v>0.6794520547945204</v>
       </c>
       <c r="I2">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C3">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0.71</v>
+        <v>0.706081081081081</v>
       </c>
       <c r="G3">
-        <v>0.95</v>
+        <v>0.9631336405529954</v>
       </c>
       <c r="H3">
-        <v>0.8100000000000001</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>286</v>
@@ -499,19 +499,19 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0.84</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="G4">
-        <v>0.73</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="H4">
-        <v>0.78</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="I4">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>317</v>
@@ -528,16 +528,16 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0.86</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="G5">
-        <v>0.73</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="H5">
-        <v>0.79</v>
+        <v>0.7866108786610879</v>
       </c>
       <c r="I5">
         <v>0.89</v>
